--- a/UnityEditorTools/Tools/ExcelToLua/Excels/DailyRewardConfig.xlsx
+++ b/UnityEditorTools/Tools/ExcelToLua/Excels/DailyRewardConfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23530"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\14043\Documents\项目工程\Word Craft\ConfigData\Excel2Lua\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B19E90CD-370A-4818-84BF-676738668F81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-105" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,61 +16,97 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>签到表</t>
   </si>
   <si>
-    <t>id对应奖励id</t>
-  </si>
-  <si>
-    <t>掉落id</t>
+    <t>id</t>
   </si>
   <si>
     <t>#备注</t>
   </si>
   <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>dropid</t>
+    <t>number值</t>
+  </si>
+  <si>
+    <t>boolean值</t>
+  </si>
+  <si>
+    <t>string值</t>
+  </si>
+  <si>
+    <t>table值</t>
   </si>
   <si>
     <t>#node</t>
   </si>
   <si>
+    <t>numVal</t>
+  </si>
+  <si>
+    <t>booleanVal</t>
+  </si>
+  <si>
+    <t>stringVal</t>
+  </si>
+  <si>
+    <t>tableVal</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>金币</t>
-  </si>
-  <si>
-    <t>普通红心</t>
-  </si>
-  <si>
-    <t>无限红心0.5小时</t>
-  </si>
-  <si>
-    <t>无限红心1小时</t>
-  </si>
-  <si>
-    <t>无限红心3小时</t>
-  </si>
-  <si>
-    <t>无限红心6小时</t>
-  </si>
-  <si>
-    <t>加字母</t>
+    <t>number</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>table</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>helloworld</t>
+  </si>
+  <si>
+    <t>{id=1,name="zhangsan"}</t>
+  </si>
+  <si>
+    <t>{id=2,name="zhangsan"}</t>
+  </si>
+  <si>
+    <t>{id=3,name="zhangsan"}</t>
+  </si>
+  <si>
+    <t>{id=4,name="zhangsan"}</t>
+  </si>
+  <si>
+    <t>{id=5,name="zhangsan"}</t>
+  </si>
+  <si>
+    <t>{id=6,name="zhangsan"}</t>
+  </si>
+  <si>
+    <t>{id=7,name="zhangsan"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,7 +118,6 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -96,26 +125,161 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,12 +288,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -139,33 +483,257 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -174,25 +742,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -204,21 +763,62 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -505,340 +1105,438 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C110"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F110"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="26" style="5" customWidth="1"/>
-    <col min="3" max="3" width="29.75" style="3" customWidth="1"/>
+    <col min="1" max="1" width="14.1333333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="29.75" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="2" customWidth="1"/>
+    <col min="4" max="5" width="11.5" customWidth="1"/>
+    <col min="6" max="6" width="24.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="21" customHeight="1" spans="1:2">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-    </row>
-    <row r="2" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:6">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" s="2" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
+    <row r="3" s="1" customFormat="1" ht="16.9" customHeight="1" spans="1:6">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="C3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:6">
+      <c r="A4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" spans="1:6">
+      <c r="A5" s="8">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:6">
+      <c r="A6" s="8">
+        <v>2</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="9">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" spans="1:6">
+      <c r="A7" s="8">
+        <v>3</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="9">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="1:6">
+      <c r="A8" s="8">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="9">
+        <v>4</v>
+      </c>
+      <c r="D8" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" spans="1:6">
+      <c r="A9" s="8">
+        <v>5</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="9">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" spans="1:6">
+      <c r="A10" s="8">
+        <v>6</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="9">
+        <v>6</v>
+      </c>
+      <c r="D10" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="1:6">
+      <c r="A11" s="8">
         <v>7</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="12">
-        <v>1</v>
-      </c>
-      <c r="B5" s="13">
-        <v>201</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="12">
-        <v>2</v>
-      </c>
-      <c r="B6" s="13">
-        <v>202</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="12">
-        <v>3</v>
-      </c>
-      <c r="B7" s="13">
-        <v>203</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="12">
-        <v>4</v>
-      </c>
-      <c r="B8" s="13">
-        <v>204</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="12">
-        <v>5</v>
-      </c>
-      <c r="B9" s="13">
-        <v>205</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="12">
-        <v>6</v>
-      </c>
-      <c r="B10" s="13">
-        <v>206</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" s="3" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="12">
+      <c r="B11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="9">
         <v>7</v>
       </c>
-      <c r="B11" s="13">
-        <v>207</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D11" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12"/>
-      <c r="C12"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B12"/>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13"/>
-      <c r="C13"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B13"/>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14"/>
-      <c r="C14"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B14"/>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15"/>
-      <c r="C15"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B15"/>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16"/>
-      <c r="C16"/>
-    </row>
-    <row r="17" spans="2:2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="2:2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="2:2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="2:2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="2:2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="2:2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="5"/>
-    </row>
-    <row r="23" spans="2:2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="2:2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="2:2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="2:2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="5"/>
-    </row>
-    <row r="27" spans="2:2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="5"/>
-    </row>
-    <row r="28" spans="2:2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="5"/>
-    </row>
-    <row r="29" spans="2:2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="2:2" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="5"/>
-    </row>
-    <row r="31" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="32" spans="2:2" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="33" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="34" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="35" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="36" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="37" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="38" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="39" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="40" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="41" s="3" customFormat="1" x14ac:dyDescent="0.15"/>
-    <row r="92" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="14"/>
-      <c r="B92" s="15"/>
-      <c r="C92" s="14"/>
-    </row>
-    <row r="93" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="14"/>
-      <c r="B93" s="15"/>
-      <c r="C93" s="14"/>
-    </row>
-    <row r="94" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="14"/>
-      <c r="B94" s="15"/>
-      <c r="C94" s="14"/>
-    </row>
-    <row r="95" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="14"/>
-      <c r="B95" s="15"/>
-      <c r="C95" s="14"/>
-    </row>
-    <row r="96" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="14"/>
-      <c r="B96" s="15"/>
-      <c r="C96" s="14"/>
-    </row>
-    <row r="97" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="14"/>
-      <c r="B97" s="15"/>
-      <c r="C97" s="14"/>
-    </row>
-    <row r="98" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="14"/>
-      <c r="B98" s="15"/>
-      <c r="C98" s="14"/>
-    </row>
-    <row r="99" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="14"/>
-      <c r="B99" s="15"/>
-      <c r="C99" s="14"/>
-    </row>
-    <row r="100" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="14"/>
-      <c r="B100" s="15"/>
-      <c r="C100" s="14"/>
-    </row>
-    <row r="101" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="14"/>
-      <c r="B101" s="15"/>
-      <c r="C101" s="14"/>
-    </row>
-    <row r="102" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="14"/>
-      <c r="B102" s="15"/>
-      <c r="C102" s="14"/>
-    </row>
-    <row r="103" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="14"/>
-      <c r="B103" s="15"/>
-      <c r="C103" s="14"/>
-    </row>
-    <row r="104" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="14"/>
-      <c r="B104" s="15"/>
-      <c r="C104" s="14"/>
-    </row>
-    <row r="105" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="14"/>
-      <c r="B105" s="15"/>
-      <c r="C105" s="14"/>
-    </row>
-    <row r="106" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="14"/>
-      <c r="B106" s="15"/>
-      <c r="C106" s="14"/>
-    </row>
-    <row r="107" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="14"/>
-      <c r="B107" s="15"/>
-      <c r="C107" s="14"/>
-    </row>
-    <row r="108" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="14"/>
-      <c r="B108" s="15"/>
-      <c r="C108" s="14"/>
-    </row>
-    <row r="109" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="14"/>
-      <c r="B109" s="15"/>
-      <c r="C109" s="14"/>
-    </row>
-    <row r="110" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="14"/>
-      <c r="B110" s="15"/>
-      <c r="C110" s="14"/>
+      <c r="B16"/>
+    </row>
+    <row r="17" customFormat="1" spans="3:3">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" customFormat="1" spans="3:3">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" customFormat="1" spans="3:3">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" customFormat="1" spans="3:3">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" customFormat="1" spans="3:3">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" customFormat="1" spans="3:3">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" customFormat="1" spans="3:3">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" customFormat="1" spans="3:3">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" customFormat="1" spans="3:3">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" customFormat="1" spans="3:3">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" customFormat="1" spans="3:3">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" customFormat="1" spans="3:3">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" customFormat="1" spans="3:3">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" customFormat="1" spans="3:3">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" s="2" customFormat="1"/>
+    <row r="32" s="2" customFormat="1"/>
+    <row r="33" s="2" customFormat="1"/>
+    <row r="34" s="2" customFormat="1"/>
+    <row r="35" s="2" customFormat="1"/>
+    <row r="36" s="2" customFormat="1"/>
+    <row r="37" s="2" customFormat="1"/>
+    <row r="38" s="2" customFormat="1"/>
+    <row r="39" s="2" customFormat="1"/>
+    <row r="40" s="2" customFormat="1"/>
+    <row r="41" s="2" customFormat="1"/>
+    <row r="92" s="3" customFormat="1" spans="1:3">
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+    </row>
+    <row r="93" s="3" customFormat="1" spans="1:3">
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+    </row>
+    <row r="94" s="3" customFormat="1" spans="1:3">
+      <c r="A94" s="10"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+    </row>
+    <row r="95" s="3" customFormat="1" spans="1:3">
+      <c r="A95" s="10"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+    </row>
+    <row r="96" s="3" customFormat="1" spans="1:3">
+      <c r="A96" s="10"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+    </row>
+    <row r="97" s="3" customFormat="1" spans="1:3">
+      <c r="A97" s="10"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="10"/>
+    </row>
+    <row r="98" s="3" customFormat="1" spans="1:3">
+      <c r="A98" s="10"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="10"/>
+    </row>
+    <row r="99" s="3" customFormat="1" spans="1:3">
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="10"/>
+    </row>
+    <row r="100" s="3" customFormat="1" spans="1:3">
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+    </row>
+    <row r="101" s="3" customFormat="1" spans="1:3">
+      <c r="A101" s="10"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+    </row>
+    <row r="102" s="3" customFormat="1" spans="1:3">
+      <c r="A102" s="10"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+    </row>
+    <row r="103" s="3" customFormat="1" spans="1:3">
+      <c r="A103" s="10"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+    </row>
+    <row r="104" s="3" customFormat="1" spans="1:3">
+      <c r="A104" s="10"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+    </row>
+    <row r="105" s="3" customFormat="1" spans="1:3">
+      <c r="A105" s="10"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+    </row>
+    <row r="106" s="3" customFormat="1" spans="1:3">
+      <c r="A106" s="10"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+    </row>
+    <row r="107" s="3" customFormat="1" spans="1:3">
+      <c r="A107" s="10"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+    </row>
+    <row r="108" s="3" customFormat="1" spans="1:3">
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+    </row>
+    <row r="109" s="3" customFormat="1" spans="1:3">
+      <c r="A109" s="10"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+    </row>
+    <row r="110" s="3" customFormat="1" spans="1:3">
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>